--- a/Info/Оценка проекта IMS Impuls.xlsx
+++ b/Info/Оценка проекта IMS Impuls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\impuls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\impuls\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Критерий</t>
   </si>
@@ -130,23 +130,17 @@
   </si>
   <si>
     <t>Итог</t>
+  </si>
+  <si>
+    <t>Реализовано</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -157,6 +151,41 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -177,7 +206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,31 +313,10 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -316,12 +324,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -333,35 +335,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -690,390 +740,388 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.5703125" customWidth="1"/>
-    <col min="2" max="3" width="16" style="18" customWidth="1"/>
-    <col min="4" max="4" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="3" width="16" style="8" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="94.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="16">
         <v>0.5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" ht="94.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="113.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="16">
         <v>0.5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="19">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:4" ht="93.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4" ht="93.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="26"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:4" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:4" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="19">
         <v>0.5</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="21"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="23">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="19">
         <v>1</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="21"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:4" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="26"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:4" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="26"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:4" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="19">
         <v>0.5</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="21"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+    <row r="22" spans="1:4" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="19">
         <v>1</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="24" spans="1:4" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="1:4" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="19">
         <v>2</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="21"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:4" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="26"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:4" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="1:4" ht="132" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="16">
         <v>2</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="2">
         <v>2</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="11">
         <v>1</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="22"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="2">
         <v>0.5</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="11">
         <v>0.5</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="22"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="11">
         <v>1</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="22"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="2">
         <v>0.5</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="10">
         <f>SUM(B2:B39)</f>
         <v>19.5</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="10">
         <f>SUM(C2:C39)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="D37:D38"/>
@@ -1084,6 +1132,18 @@
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
